--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value502.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value502.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.480985421171483</v>
+        <v>1.268596529960632</v>
       </c>
       <c r="B1">
-        <v>3.179586254098034</v>
+        <v>2.743371725082397</v>
       </c>
       <c r="C1">
-        <v>3.414804583947326</v>
+        <v>4.985915184020996</v>
       </c>
       <c r="D1">
-        <v>1.10168164505378</v>
+        <v>2.020536422729492</v>
       </c>
       <c r="E1">
-        <v>0.7786727423355494</v>
+        <v>1.031789779663086</v>
       </c>
     </row>
   </sheetData>
